--- a/internal_flop_hold_PVT_tx_fifo_read_flop_reset_post_new_pdk_tsmc2p_meas.xlsx
+++ b/internal_flop_hold_PVT_tx_fifo_read_flop_reset_post_new_pdk_tsmc2p_meas.xlsx
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.04236</v>
+        <v>2.91145</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -766,22 +766,22 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <v>1.64864</v>
+        <v>1.6076</v>
       </c>
       <c r="U2">
-        <v>3.04236</v>
+        <v>2.91145</v>
       </c>
       <c r="V2">
-        <v>0.0862026</v>
+        <v>0.0862435</v>
       </c>
       <c r="W2">
-        <v>0.08563080000000001</v>
+        <v>0.085953</v>
       </c>
       <c r="X2">
-        <v>0.409313</v>
+        <v>0.407511</v>
       </c>
       <c r="Y2">
-        <v>0.397471</v>
+        <v>0.407945</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.92877</v>
+        <v>2.78793</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -843,22 +843,22 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>1.79135</v>
+        <v>1.73366</v>
       </c>
       <c r="U3">
-        <v>2.92877</v>
+        <v>2.78793</v>
       </c>
       <c r="V3">
-        <v>0.0813218</v>
+        <v>0.08144659999999999</v>
       </c>
       <c r="W3">
-        <v>0.0860233</v>
+        <v>0.08593249999999999</v>
       </c>
       <c r="X3">
-        <v>0.406826</v>
+        <v>0.402358</v>
       </c>
       <c r="Y3">
-        <v>0.421948</v>
+        <v>0.432883</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.06994</v>
+        <v>2.95448</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -920,22 +920,22 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>1.45895</v>
+        <v>1.44734</v>
       </c>
       <c r="U4">
-        <v>3.06994</v>
+        <v>2.95448</v>
       </c>
       <c r="V4">
-        <v>0.0938456</v>
+        <v>0.09411600000000001</v>
       </c>
       <c r="W4">
-        <v>0.078941</v>
+        <v>0.0790964</v>
       </c>
       <c r="X4">
-        <v>0.409016</v>
+        <v>0.406685</v>
       </c>
       <c r="Y4">
-        <v>0.373189</v>
+        <v>0.384987</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.91563</v>
+        <v>2.80964</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -997,22 +997,22 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>2.13757</v>
+        <v>2.14099</v>
       </c>
       <c r="U5">
-        <v>2.91563</v>
+        <v>2.80964</v>
       </c>
       <c r="V5">
-        <v>0.0945271</v>
+        <v>0.09433130000000001</v>
       </c>
       <c r="W5">
-        <v>0.104191</v>
+        <v>0.103969</v>
       </c>
       <c r="X5">
-        <v>0.446531</v>
+        <v>0.444831</v>
       </c>
       <c r="Y5">
-        <v>0.359114</v>
+        <v>0.367462</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.07214</v>
+        <v>2.97857</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1074,22 +1074,22 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>1.93174</v>
+        <v>1.94055</v>
       </c>
       <c r="U6">
-        <v>3.07214</v>
+        <v>2.97857</v>
       </c>
       <c r="V6">
-        <v>0.101882</v>
+        <v>0.101657</v>
       </c>
       <c r="W6">
-        <v>0.0941105</v>
+        <v>0.0941414</v>
       </c>
       <c r="X6">
-        <v>0.434133</v>
+        <v>0.431492</v>
       </c>
       <c r="Y6">
-        <v>0.482676</v>
+        <v>0.493665</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.83839</v>
+        <v>2.7258</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1151,22 +1151,22 @@
         <v>1</v>
       </c>
       <c r="T7">
-        <v>1.77035</v>
+        <v>1.71878</v>
       </c>
       <c r="U7">
-        <v>2.83839</v>
+        <v>2.7258</v>
       </c>
       <c r="V7">
-        <v>0.081329</v>
+        <v>0.0816297</v>
       </c>
       <c r="W7">
-        <v>0.0892565</v>
+        <v>0.0894066</v>
       </c>
       <c r="X7">
-        <v>0.407281</v>
+        <v>0.402469</v>
       </c>
       <c r="Y7">
-        <v>0.466912</v>
+        <v>0.478227</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.11324</v>
+        <v>2.99643</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1228,22 +1228,22 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>1.53831</v>
+        <v>1.54206</v>
       </c>
       <c r="U8">
-        <v>3.11324</v>
+        <v>2.99643</v>
       </c>
       <c r="V8">
-        <v>0.09417059999999999</v>
+        <v>0.09417159999999999</v>
       </c>
       <c r="W8">
-        <v>0.0878097</v>
+        <v>0.0876521</v>
       </c>
       <c r="X8">
-        <v>0.421865</v>
+        <v>0.419812</v>
       </c>
       <c r="Y8">
-        <v>0.405347</v>
+        <v>0.417006</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.00923</v>
+        <v>2.87704</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1305,22 +1305,22 @@
         <v>1</v>
       </c>
       <c r="T9">
-        <v>1.72193</v>
+        <v>1.67921</v>
       </c>
       <c r="U9">
-        <v>3.00923</v>
+        <v>2.87704</v>
       </c>
       <c r="V9">
-        <v>0.0806735</v>
+        <v>0.0813649</v>
       </c>
       <c r="W9">
-        <v>0.0814318</v>
+        <v>0.083089</v>
       </c>
       <c r="X9">
-        <v>0.402582</v>
+        <v>0.402976</v>
       </c>
       <c r="Y9">
-        <v>0.370272</v>
+        <v>0.381119</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.71939</v>
+        <v>2.62912</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1382,22 +1382,22 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <v>1.57577</v>
+        <v>1.5396</v>
       </c>
       <c r="U10">
-        <v>2.71939</v>
+        <v>2.62912</v>
       </c>
       <c r="V10">
-        <v>0.103041</v>
+        <v>0.104645</v>
       </c>
       <c r="W10">
-        <v>0.0582326</v>
+        <v>0.0587781</v>
       </c>
       <c r="X10">
-        <v>0.409223</v>
+        <v>0.404056</v>
       </c>
       <c r="Y10">
-        <v>0.520645</v>
+        <v>0.53624</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.80874</v>
+        <v>2.6689</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1459,22 +1459,22 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>1.52376</v>
+        <v>1.48394</v>
       </c>
       <c r="U11">
-        <v>2.80874</v>
+        <v>2.6689</v>
       </c>
       <c r="V11">
-        <v>0.0682012</v>
+        <v>0.069665</v>
       </c>
       <c r="W11">
-        <v>0.0706174</v>
+        <v>0.07159889999999999</v>
       </c>
       <c r="X11">
-        <v>0.388902</v>
+        <v>0.388117</v>
       </c>
       <c r="Y11">
-        <v>0.392232</v>
+        <v>0.403294</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.22895</v>
+        <v>2.16124</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1536,22 +1536,22 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>1.58015</v>
+        <v>1.54102</v>
       </c>
       <c r="U12">
-        <v>2.22895</v>
+        <v>2.16124</v>
       </c>
       <c r="V12">
-        <v>0.0797128</v>
+        <v>0.0812162</v>
       </c>
       <c r="W12">
-        <v>0.0603821</v>
+        <v>0.0606367</v>
       </c>
       <c r="X12">
-        <v>0.360941</v>
+        <v>0.359034</v>
       </c>
       <c r="Y12">
-        <v>0.5245840000000001</v>
+        <v>0.540216</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.128</v>
+        <v>2.86352</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1613,22 +1613,22 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>1.81559</v>
+        <v>1.75343</v>
       </c>
       <c r="U13">
-        <v>3.128</v>
+        <v>2.86352</v>
       </c>
       <c r="V13">
-        <v>0.0903371</v>
+        <v>0.0901539</v>
       </c>
       <c r="W13">
-        <v>0.08480310000000001</v>
+        <v>0.0867706</v>
       </c>
       <c r="X13">
-        <v>0.463045</v>
+        <v>0.457294</v>
       </c>
       <c r="Y13">
-        <v>0.370145</v>
+        <v>0.406645</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.17752</v>
+        <v>3.10911</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1690,22 +1690,22 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>2.1298</v>
+        <v>1.71134</v>
       </c>
       <c r="U14">
-        <v>3.17752</v>
+        <v>3.10911</v>
       </c>
       <c r="V14">
-        <v>0.163493</v>
+        <v>0.12584</v>
       </c>
       <c r="W14">
-        <v>0.0779352</v>
+        <v>0.0832685</v>
       </c>
       <c r="X14">
-        <v>0.506792</v>
+        <v>0.479122</v>
       </c>
       <c r="Y14">
-        <v>0.469758</v>
+        <v>0.374209</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.07999</v>
+        <v>2.85626</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1767,22 +1767,22 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>1.73256</v>
+        <v>1.83116</v>
       </c>
       <c r="U15">
-        <v>3.07999</v>
+        <v>2.85626</v>
       </c>
       <c r="V15">
-        <v>0.0801099</v>
+        <v>0.08192629999999999</v>
       </c>
       <c r="W15">
-        <v>0.07727390000000001</v>
+        <v>0.0813709</v>
       </c>
       <c r="X15">
-        <v>0.449832</v>
+        <v>0.453955</v>
       </c>
       <c r="Y15">
-        <v>0.413102</v>
+        <v>0.411462</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.86248</v>
+        <v>2.9488</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1844,22 +1844,22 @@
         <v>1</v>
       </c>
       <c r="T16">
-        <v>2.03282</v>
+        <v>1.67596</v>
       </c>
       <c r="U16">
-        <v>2.86248</v>
+        <v>2.9488</v>
       </c>
       <c r="V16">
-        <v>0.13155</v>
+        <v>0.106763</v>
       </c>
       <c r="W16">
-        <v>0.07310850000000001</v>
+        <v>0.0780494</v>
       </c>
       <c r="X16">
-        <v>0.447865</v>
+        <v>0.448274</v>
       </c>
       <c r="Y16">
-        <v>0.470275</v>
+        <v>0.452708</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.83586</v>
+        <v>2.62933</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1921,22 +1921,22 @@
         <v>1</v>
       </c>
       <c r="T17">
-        <v>1.59325</v>
+        <v>1.55184</v>
       </c>
       <c r="U17">
-        <v>2.83586</v>
+        <v>2.62933</v>
       </c>
       <c r="V17">
-        <v>0.0786862</v>
+        <v>0.07733950000000001</v>
       </c>
       <c r="W17">
-        <v>0.08561820000000001</v>
+        <v>0.0911592</v>
       </c>
       <c r="X17">
-        <v>0.371835</v>
+        <v>0.367357</v>
       </c>
       <c r="Y17">
-        <v>0.45242</v>
+        <v>0.522204</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.59785</v>
+        <v>2.73299</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1998,22 +1998,22 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>1.50914</v>
+        <v>1.62914</v>
       </c>
       <c r="U18">
-        <v>2.59785</v>
+        <v>2.73299</v>
       </c>
       <c r="V18">
-        <v>0.0800104</v>
+        <v>0.0858507</v>
       </c>
       <c r="W18">
-        <v>0.0792354</v>
+        <v>0.0663006</v>
       </c>
       <c r="X18">
-        <v>0.380925</v>
+        <v>0.381353</v>
       </c>
       <c r="Y18">
-        <v>0.585869</v>
+        <v>0.5457379999999999</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.81845</v>
+        <v>2.68938</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2075,22 +2075,22 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>1.46107</v>
+        <v>1.59383</v>
       </c>
       <c r="U19">
-        <v>2.81845</v>
+        <v>2.68938</v>
       </c>
       <c r="V19">
-        <v>0.0709935</v>
+        <v>0.07460310000000001</v>
       </c>
       <c r="W19">
-        <v>0.07397239999999999</v>
+        <v>0.0811207</v>
       </c>
       <c r="X19">
-        <v>0.377839</v>
+        <v>0.37845</v>
       </c>
       <c r="Y19">
-        <v>0.354445</v>
+        <v>0.426835</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.28199</v>
+        <v>2.60047</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2152,22 +2152,22 @@
         <v>1</v>
       </c>
       <c r="T20">
-        <v>1.33138</v>
+        <v>1.3883</v>
       </c>
       <c r="U20">
-        <v>2.28199</v>
+        <v>2.60047</v>
       </c>
       <c r="V20">
-        <v>0.0648938</v>
+        <v>0.0758231</v>
       </c>
       <c r="W20">
-        <v>0.0644692</v>
+        <v>0.060759</v>
       </c>
       <c r="X20">
-        <v>0.356282</v>
+        <v>0.37555</v>
       </c>
       <c r="Y20">
-        <v>0.455686</v>
+        <v>0.432464</v>
       </c>
     </row>
     <row r="21" spans="1:25" s="1" customFormat="1">
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>2.22895</v>
+        <v>2.16124</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -2276,22 +2276,22 @@
         <v>1</v>
       </c>
       <c r="T22" s="1">
-        <v>1.33138</v>
+        <v>1.3883</v>
       </c>
       <c r="U22" s="1">
-        <v>2.22895</v>
+        <v>2.16124</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0648938</v>
+        <v>0.069665</v>
       </c>
       <c r="W22" s="1">
-        <v>0.0582326</v>
+        <v>0.0587781</v>
       </c>
       <c r="X22" s="1">
-        <v>0.356282</v>
+        <v>0.359034</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.354445</v>
+        <v>0.367462</v>
       </c>
     </row>
     <row r="23" spans="1:25" s="1" customFormat="1">
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="1">
-        <v>3.17752</v>
+        <v>3.10911</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -2323,22 +2323,22 @@
         <v>1</v>
       </c>
       <c r="T23" s="1">
-        <v>2.13757</v>
+        <v>2.14099</v>
       </c>
       <c r="U23" s="1">
-        <v>3.17752</v>
+        <v>3.10911</v>
       </c>
       <c r="V23" s="1">
-        <v>0.163493</v>
+        <v>0.12584</v>
       </c>
       <c r="W23" s="1">
-        <v>0.104191</v>
+        <v>0.103969</v>
       </c>
       <c r="X23" s="1">
-        <v>0.506792</v>
+        <v>0.479122</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.585869</v>
+        <v>0.5457379999999999</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="1" customFormat="1">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="1">
-        <v>2.869943157894737</v>
+        <v>2.785813684210527</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -2474,22 +2474,22 @@
         <v>1</v>
       </c>
       <c r="T28" s="1">
-        <v>1.699164736842105</v>
+        <v>1.658407894736842</v>
       </c>
       <c r="U28" s="1">
-        <v>2.869943157894737</v>
+        <v>2.785813684210527</v>
       </c>
       <c r="V28" s="1">
-        <v>0.09078847894736841</v>
+        <v>0.08888349473684209</v>
       </c>
       <c r="W28" s="1">
-        <v>0.07963382105263157</v>
+        <v>0.08047645263157895</v>
       </c>
       <c r="X28" s="1">
-        <v>0.413212</v>
+        <v>0.4110892631578947</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.43611</v>
+        <v>0.4429110000000001</v>
       </c>
     </row>
     <row r="29" spans="1:25" s="1" customFormat="1">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>0.2577167837201922</v>
+        <v>0.2025589356266864</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>0.224474421643757</v>
+        <v>0.1735930729450781</v>
       </c>
       <c r="U29" s="1">
-        <v>0.2577167837201922</v>
+        <v>0.2025589356266864</v>
       </c>
       <c r="V29" s="1">
-        <v>0.02251308821016131</v>
+        <v>0.01327564585684207</v>
       </c>
       <c r="W29" s="1">
-        <v>0.01109351107343383</v>
+        <v>0.01178753923480074</v>
       </c>
       <c r="X29" s="1">
-        <v>0.03714325537131805</v>
+        <v>0.03266657642049455</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.06232536662758718</v>
+        <v>0.05748229094159989</v>
       </c>
     </row>
     <row r="30" spans="1:25" s="1" customFormat="1">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>8.979856726822485</v>
+        <v>7.271086963738914</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>13.21086865661668</v>
+        <v>10.46745336270991</v>
       </c>
       <c r="U30" s="1">
-        <v>8.979856726822485</v>
+        <v>7.271086963738914</v>
       </c>
       <c r="V30" s="1">
-        <v>24.79729638736708</v>
+        <v>14.93600796879934</v>
       </c>
       <c r="W30" s="1">
-        <v>13.93065273874263</v>
+        <v>14.64719038842837</v>
       </c>
       <c r="X30" s="1">
-        <v>8.988910140876367</v>
+        <v>7.946346292179296</v>
       </c>
       <c r="Y30" s="1">
-        <v>14.29120328072899</v>
+        <v>12.97829382011282</v>
       </c>
     </row>
     <row r="31" spans="1:25" s="1" customFormat="1"/>
